--- a/09 - Interval estimation/Ind test 9 (10 open edu).xlsx
+++ b/09 - Interval estimation/Ind test 9 (10 open edu).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davut\University\Master ITMO\1 semester\Data pre-processing and statistical elements\09 - Interval estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266287B4-CA81-4FB2-8A1E-AEBD869B345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF5450-B873-40F1-819C-F862E0713B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-30" windowWidth="21600" windowHeight="11295" xr2:uid="{4C4DE6C1-3BAD-45AF-B398-363FB50F9CEC}"/>
+    <workbookView xWindow="6045" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{4C4DE6C1-3BAD-45AF-B398-363FB50F9CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD882695-6439-4CD4-886F-43D1CE278FDD}">
   <dimension ref="A1:E10000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
